--- a/CutRE/DM/Características_brilloDM.xlsx
+++ b/CutRE/DM/Características_brilloDM.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Media</t>
+  </si>
+  <si>
+    <t>Luminacia</t>
   </si>
 </sst>
 </file>
@@ -374,1639 +377,2251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B204"/>
+  <dimension ref="A1:C204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0.004273115978899017</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>116.0152318840579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>0.004581245692273947</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>201.8761304347826</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>0.003706488497235067</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>146.3939536231884</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>0.004528798148948085</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>145.3413507246377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>0.003900172958525403</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>55.48088550724638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>0.00464666756149065</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>182.1295811594203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
         <v>0.004432456404762157</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>154.6768797101449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
         <v>0.004886264107201078</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>115.7643753623188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
         <v>0.004748097691436746</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>143.882468115942</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
         <v>0.004540363183584604</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>88.78143333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
         <v>0.004475204816547345</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>172.2531478260869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
         <v>0.004402912603502444</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>103.4174898550725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
         <v>0.004541859831631569</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>196.1944724637681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
         <v>0.004650344800686142</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>134.3898420289855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
         <v>0.004818629530519094</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>90.19832608695653</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
         <v>0.004509125665170149</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>57.47792898550724</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
         <v>0.004807603124881634</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>86.80393623188404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
         <v>0.004563968784407079</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>150.9669652173913</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
         <v>0.004950560491397625</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>71.04197101449273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
         <v>0.004310020803472541</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>182.1113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
         <v>0.00440358955580007</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>161.7379768115942</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
         <v>0.004425849597553678</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>137.0183275362319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
         <v>0.004030912012122617</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <v>230.3047420289855</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
         <v>0.003577801785550692</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <v>176.8750855072464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
         <v>0.004857739425363959</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <v>62.74815652173912</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
         <v>0.004610760523875173</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>66.56739420289856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
         <v>0.004571298943823546</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <v>108.322847826087</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
         <v>0.004706086585726501</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <v>105.8615971014493</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
         <v>0.004197141379160874</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <v>144.0911666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
         <v>0.004402036896117542</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <v>145.1377449275363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
         <v>0.00466175969216914</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <v>104.4195753623188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
         <v>0.00439482897603018</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <v>153.8753971014493</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
         <v>0.003850186510632337</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <v>96.37622173913043</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
         <v>0.00476250337830896</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <v>109.8778898550725</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
         <v>0.004397194220148065</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <v>175.4148057971015</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
         <v>0.003844415962902881</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>102.2072463768116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
         <v>0.004882102026541357</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <v>103.0234144927536</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
         <v>0.00453908353879498</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <v>69.91094927536231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
         <v>0.00405851888888005</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <v>168.929584057971</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
         <v>0.004503400505237803</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <v>142.3475101449276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
         <v>0.004639242912113722</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>182.9593753623188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
         <v>0.00354819305761597</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <v>24.89002608695652</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
         <v>0.004233971722007599</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <v>160.5633666666667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
         <v>0.004694757181548349</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>177.1537913043478</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
         <v>0.004941876072500217</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <v>118.4718695652174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
         <v>0.004695426369022187</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <v>120.1164072463768</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
         <v>0.004970258059716111</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <v>77.20719710144928</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
         <v>0.0044067645603023</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <v>190.9851637681159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
         <v>0.004671162130630841</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <v>189.6191898550724</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
         <v>0.004789609163604064</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51">
+        <v>109.6262623188406</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
         <v>0.004624299906111978</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>195.9465347826087</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
         <v>0.004472527368780355</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <v>123.4215797101449</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
         <v>0.005016146246305576</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54">
+        <v>100.2820637681159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
         <v>0.004631450018913246</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55">
+        <v>62.7483695652174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
         <v>0.004591726445610424</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <v>94.18088840579709</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
         <v>0.004682967414502383</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>96.98924927536231</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
         <v>0.004969168750637305</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58">
+        <v>66.04463768115941</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
         <v>0.003428028449339424</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59">
+        <v>205.1688434782608</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
         <v>0.003518154435781354</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60">
+        <v>229.5116797101449</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
         <v>0.004400992180860807</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61">
+        <v>126.8605565217391</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
         <v>0.004346143830737159</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62">
+        <v>172.0440318840579</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
         <v>0.004460744481475432</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63">
+        <v>215.9988217391304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
         <v>0.003580477931749471</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64">
+        <v>161.5357956521739</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
         <v>0.005223186045530066</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65">
+        <v>34.54139855072464</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
         <v>0.004689724316732994</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66">
+        <v>47.23503478260869</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
         <v>0.004557392351900732</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67">
+        <v>99.80204637681159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
         <v>0.004708388674451953</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68">
+        <v>89.3112072463768</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
         <v>0.004449390178307875</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69">
+        <v>148.9158188405797</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
         <v>0.003998477894404802</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70">
+        <v>129.4291927536232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
         <v>0.004719997777030931</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71">
+        <v>108.8546652173913</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
         <v>0.003863690121365196</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72">
+        <v>124.974547826087</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
         <v>0.00394977384209236</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73">
+        <v>98.96806376811593</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
         <v>0.00471103676987556</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74">
+        <v>117.7979217391304</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
         <v>0.004538289655669232</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75">
+        <v>137.9996594202899</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
         <v>0.004673391188626398</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76">
+        <v>91.94769275362319</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
         <v>0.004767669821625345</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77">
+        <v>81.50018695652173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
         <v>0.004411301785219913</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78">
+        <v>136.0376579710145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
         <v>0.004818227824263934</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79">
+        <v>123.7479956521739</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
         <v>0.00448670990744944</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80">
+        <v>161.0017927536232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
         <v>0.004813820776682421</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81">
+        <v>26.60487536231884</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
         <v>0.004486357616093501</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82">
+        <v>149.2542985507246</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
         <v>0.004375001514071203</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83">
+        <v>191.9366304347826</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
         <v>0.004595071541274144</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84">
+        <v>111.9399246376811</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
         <v>0.00463325038334456</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85">
+        <v>122.1677115942029</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
         <v>0.004486969452126538</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86">
+        <v>187.6360130434783</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
         <v>0.004239933915818545</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87">
+        <v>204.0204028985507</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
         <v>0.003905140326517407</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88">
+        <v>138.7575623188406</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
         <v>0.004610495807316412</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89">
+        <v>195.7883173913043</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
         <v>0.003358466116322091</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90">
+        <v>89.32094492753623</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
         <v>0.004471381150224512</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91">
+        <v>119.2996260869565</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
         <v>0.004436090364907886</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92">
+        <v>59.84568260869565</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
         <v>0.004582730386447394</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93">
+        <v>99.30565217391305</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
         <v>0.004676428717925228</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94">
+        <v>74.61148695652173</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
         <v>0.004790673663891245</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95">
+        <v>63.86368405797101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
         <v>0.004187711698386815</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>234.7927579710145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
         <v>0.004418187923865288</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97">
+        <v>146.8123130434782</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
         <v>0.004131426234365667</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98">
+        <v>160.5480333333333</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
         <v>0.004501348861471142</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99">
+        <v>177.3021130434782</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
         <v>0.003582777536761358</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>159.2071739130435</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
         <v>0.004633720921825257</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="C101">
+        <v>34.24209710144927</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
         <v>0.004562969374636479</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>32.69905652173913</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
         <v>0.004444058947956505</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>130.0214594202899</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
         <v>0.004622513859971372</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="C104">
+        <v>75.20497681159421</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
         <v>0.004590280371679236</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="C105">
+        <v>102.9621782608695</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
         <v>0.004659263439161155</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="C106">
+        <v>117.7206231884058</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
         <v>0.004014000864351715</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="C107">
+        <v>130.2360956521739</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
         <v>0.004354108718136778</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="C108">
+        <v>109.7030130434783</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
         <v>0.003487053917815768</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="C109">
+        <v>101.2779623188406</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
         <v>0.004369914931644519</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="C110">
+        <v>108.3651782608696</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
         <v>0.004381704232493679</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="C111">
+        <v>95.06932898550724</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
         <v>0.004724304192723345</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="C112">
+        <v>91.9873231884058</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
         <v>0.004689551767909722</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="C113">
+        <v>82.65541014492753</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
         <v>0.003763606525551922</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="C114">
+        <v>138.7320130434783</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
         <v>0.004650037089618783</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="C115">
+        <v>104.0456420289855</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
         <v>0.004545404010612331</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="C116">
+        <v>67.76190579710145</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
         <v>0.004690856078678074</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="C117">
+        <v>103.7316333333333</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
         <v>0.004444395774047059</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="C118">
+        <v>199.0711942028985</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
         <v>0.004060419619225357</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="C119">
+        <v>143.7122768115942</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
         <v>0.004635910511965788</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="C120">
+        <v>126.9092985507246</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
         <v>0.005112774600275659</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="C121">
+        <v>62.53281304347826</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
         <v>0.004508562978374456</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="C122">
+        <v>194.9423913043478</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
         <v>0.003321142498732291</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="C123">
+        <v>224.7068275362319</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
         <v>0.004340200608234616</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="C124">
+        <v>160.762684057971</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
         <v>0.004412869381403335</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="C125">
+        <v>193.1458942028985</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
         <v>0.004575168145475673</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="C126">
+        <v>136.247584057971</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
         <v>0.004912739849323949</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="C127">
+        <v>64.427884057971</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
         <v>0.004702710713075771</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="C128">
+        <v>114.5178246376811</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
         <v>0.004929994149901889</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="C129">
+        <v>67.02278550724637</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
         <v>0.004903561868248993</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="C130">
+        <v>66.32022318840581</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
         <v>0.002885931385511768</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="C131">
+        <v>246.8418695652174</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
         <v>0.004353078394298505</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="C132">
+        <v>235.9890913043478</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
         <v>0.004606817068783882</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="C133">
+        <v>197.261015942029</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
         <v>0.004736306609758901</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="C134">
+        <v>132.9128101449275</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
         <v>0.004348393299383605</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="C135">
+        <v>133.6526014492754</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
         <v>0.004413190050089289</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="C136">
+        <v>143.3907260869565</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
         <v>0.004473704521866268</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="C137">
+        <v>116.2684072463768</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
         <v>0.004439611632391569</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
+      <c r="C138">
+        <v>148.7160376811594</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
         <v>0.004473465071257228</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="C139">
+        <v>145.5295594202898</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
         <v>0.004605079882248786</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
+      <c r="C140">
+        <v>108.503215942029</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
         <v>0.004230978928380215</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
+      <c r="C141">
+        <v>109.8521985507246</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
         <v>0.004471270529760567</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
+      <c r="C142">
+        <v>135.0589014492753</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
         <v>0.003789341885047211</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
+      <c r="C143">
+        <v>114.1663811594203</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
         <v>0.00425657973918985</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
+      <c r="C144">
+        <v>132.412952173913</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
         <v>0.004143015662184708</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
+      <c r="C145">
+        <v>215.8666376811594</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
         <v>0.004092257109193646</v>
       </c>
-    </row>
-    <row r="147" spans="1:2">
+      <c r="C146">
+        <v>89.18990434782609</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
         <v>0.004817934068175405</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
+      <c r="C147">
+        <v>79.85891594202899</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
         <v>0.004636270178727023</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
+      <c r="C148">
+        <v>88.25981304347825</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
         <v>0.004251921107679885</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
+      <c r="C149">
+        <v>156.7885260869565</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
         <v>0.004935448830892514</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
+      <c r="C150">
+        <v>105.6144014492753</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
         <v>0.00437353329343843</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
+      <c r="C151">
+        <v>148.9413014492753</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
         <v>0.004147912806524347</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
+      <c r="C152">
+        <v>154.0547405797101</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
         <v>0.004617589908554709</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
+      <c r="C153">
+        <v>85.10351449275362</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
         <v>0.004088809256407917</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
+      <c r="C154">
+        <v>194.5835347826087</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
         <v>0.004260043408738931</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
+      <c r="C155">
+        <v>133.8719666666667</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
         <v>0.004789017117606672</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
+      <c r="C156">
+        <v>67.14415942028985</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
         <v>0.004212054888911803</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
+      <c r="C157">
+        <v>214.1368884057971</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
         <v>0.003615678880772666</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
+      <c r="C158">
+        <v>225.1609898550725</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
         <v>0.004483637804835081</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
+      <c r="C159">
+        <v>179.5027289855072</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
         <v>0.004448828823988394</v>
       </c>
-    </row>
-    <row r="161" spans="1:2">
+      <c r="C160">
+        <v>189.7186188405797</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:2">
+      <c r="C161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
         <v>0.003627877180988489</v>
       </c>
-    </row>
-    <row r="163" spans="1:2">
+      <c r="C162">
+        <v>150.2823434782609</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
         <v>0.004643022695479615</v>
       </c>
-    </row>
-    <row r="164" spans="1:2">
+      <c r="C163">
+        <v>62.55768405797102</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
         <v>0.004606640719044364</v>
       </c>
-    </row>
-    <row r="165" spans="1:2">
+      <c r="C164">
+        <v>120.5685217391304</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
         <v>0.004612680058758718</v>
       </c>
-    </row>
-    <row r="166" spans="1:2">
+      <c r="C165">
+        <v>66.42419710144927</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
         <v>0.002901665444908002</v>
       </c>
-    </row>
-    <row r="167" spans="1:2">
+      <c r="C166">
+        <v>246.8188405797102</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
         <v>0.004601506292350336</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
+      <c r="C167">
+        <v>221.5807594202898</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
         <v>0.004615972860067934</v>
       </c>
-    </row>
-    <row r="169" spans="1:2">
+      <c r="C168">
+        <v>212.338452173913</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
         <v>0.004692615366331679</v>
       </c>
-    </row>
-    <row r="170" spans="1:2">
+      <c r="C169">
+        <v>106.3670188405797</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
         <v>0.004199227021791168</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
+      <c r="C170">
+        <v>146.3552</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
         <v>0.003664655071077204</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
+      <c r="C171">
+        <v>170.1716173913044</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
         <v>0.004110892238955457</v>
       </c>
-    </row>
-    <row r="173" spans="1:2">
+      <c r="C172">
+        <v>88.08440434782608</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
         <v>0.004490756329387907</v>
       </c>
-    </row>
-    <row r="174" spans="1:2">
+      <c r="C173">
+        <v>121.2633652173913</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
         <v>0.004618935827148141</v>
       </c>
-    </row>
-    <row r="175" spans="1:2">
+      <c r="C174">
+        <v>133.893984057971</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
         <v>0.004510292483444798</v>
       </c>
-    </row>
-    <row r="176" spans="1:2">
+      <c r="C175">
+        <v>142.629652173913</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
         <v>0.004839355196224363</v>
       </c>
-    </row>
-    <row r="177" spans="1:2">
+      <c r="C176">
+        <v>76.08600144927537</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
         <v>0.004264461529963981</v>
       </c>
-    </row>
-    <row r="178" spans="1:2">
+      <c r="C177">
+        <v>135.2053188405797</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
         <v>0.003824101893390589</v>
       </c>
-    </row>
-    <row r="179" spans="1:2">
+      <c r="C178">
+        <v>107.595115942029</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
         <v>0.004178044867860781</v>
       </c>
-    </row>
-    <row r="180" spans="1:2">
+      <c r="C179">
+        <v>143.4559289855073</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
         <v>0.004071236504945422</v>
       </c>
-    </row>
-    <row r="181" spans="1:2">
+      <c r="C180">
+        <v>187.3329594202899</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
         <v>0.004402247300123844</v>
       </c>
-    </row>
-    <row r="182" spans="1:2">
+      <c r="C181">
+        <v>172.1414507246377</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
         <v>0.00430780481831146</v>
       </c>
-    </row>
-    <row r="183" spans="1:2">
+      <c r="C182">
+        <v>117.4943492753623</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
         <v>0.00460327202321564</v>
       </c>
-    </row>
-    <row r="184" spans="1:2">
+      <c r="C183">
+        <v>64.85872608695652</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
         <v>0.004720842773119011</v>
       </c>
-    </row>
-    <row r="185" spans="1:2">
+      <c r="C184">
+        <v>134.6139144927536</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
         <v>0.00476158964535579</v>
       </c>
-    </row>
-    <row r="186" spans="1:2">
+      <c r="C185">
+        <v>157.9312608695652</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
         <v>0.004368265384436121</v>
       </c>
-    </row>
-    <row r="187" spans="1:2">
+      <c r="C186">
+        <v>107.3268275362319</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
         <v>0.004262045207967209</v>
       </c>
-    </row>
-    <row r="188" spans="1:2">
+      <c r="C187">
+        <v>125.883515942029</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
         <v>0.004487684406994152</v>
       </c>
-    </row>
-    <row r="189" spans="1:2">
+      <c r="C188">
+        <v>92.7041608695652</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
         <v>0.004294595639914683</v>
       </c>
-    </row>
-    <row r="190" spans="1:2">
+      <c r="C189">
+        <v>218.0283695652174</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
         <v>0.003957315572963237</v>
       </c>
-    </row>
-    <row r="191" spans="1:2">
+      <c r="C190">
+        <v>152.4450376811594</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
         <v>0.004479490602422968</v>
       </c>
-    </row>
-    <row r="192" spans="1:2">
+      <c r="C191">
+        <v>160.2965956521739</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
         <v>0.004852413214421009</v>
       </c>
-    </row>
-    <row r="193" spans="1:2">
+      <c r="C192">
+        <v>61.01452608695652</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
         <v>0.002934619815235611</v>
       </c>
-    </row>
-    <row r="194" spans="1:2">
+      <c r="C193">
+        <v>227.0465463768116</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
         <v>0.003455238364322169</v>
       </c>
-    </row>
-    <row r="195" spans="1:2">
+      <c r="C194">
+        <v>225.3623188405797</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195">
         <v>0.004581432196143645</v>
       </c>
-    </row>
-    <row r="196" spans="1:2">
+      <c r="C195">
+        <v>212.9107478260869</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
         <v>0.002742254916860663</v>
       </c>
-    </row>
-    <row r="197" spans="1:2">
+      <c r="C196">
+        <v>56.04260434782609</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197">
         <v>0.002941383662409122</v>
       </c>
-    </row>
-    <row r="198" spans="1:2">
+      <c r="C197">
+        <v>45.10759420289855</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198">
         <v>0.002712091515158598</v>
       </c>
-    </row>
-    <row r="199" spans="1:2">
+      <c r="C198">
+        <v>89.72987391304349</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199">
         <v>0.002247199478223508</v>
       </c>
-    </row>
-    <row r="200" spans="1:2">
+      <c r="C199">
+        <v>120.9402985507246</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200">
         <v>0.002687808860698142</v>
       </c>
-    </row>
-    <row r="201" spans="1:2">
+      <c r="C200">
+        <v>102.7718913043478</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201">
         <v>0.002737430518013373</v>
       </c>
-    </row>
-    <row r="202" spans="1:2">
+      <c r="C201">
+        <v>156.1629898550725</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202">
         <v>0.002544702038923981</v>
       </c>
-    </row>
-    <row r="203" spans="1:2">
+      <c r="C202">
+        <v>123.8035217391304</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203">
         <v>0.002486242255633934</v>
       </c>
-    </row>
-    <row r="204" spans="1:2">
+      <c r="C203">
+        <v>50.38618405797101</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204">
         <v>0.002861959158514943</v>
+      </c>
+      <c r="C204">
+        <v>51.04199420289856</v>
       </c>
     </row>
   </sheetData>

--- a/CutRE/DM/Características_brilloDM.xlsx
+++ b/CutRE/DM/Características_brilloDM.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Media</t>
+    <t>Brillo Opción 1</t>
+  </si>
+  <si>
+    <t>Contraste</t>
   </si>
 </sst>
 </file>
@@ -374,1639 +377,2251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B204"/>
+  <dimension ref="A1:C204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.004273115978899017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.004265835518026112</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.004581245692273947</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>0.004560340365688015</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.003706488497235067</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.003709866714893872</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004528798148948085</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0.004533595761043807</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.003900172958525403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.003939228775922385</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.00464666756149065</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004625482735604949</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.004432456404762157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.004461259172730472</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.004886264107201078</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004861616256473723</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.004748097691436746</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.004751280446681296</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.004540363183584604</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.004539912610552803</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.004475204816547345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004475538661225237</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.004402912603502444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.004427534828034086</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.004541859831631569</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.004568713313297884</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.004650344800686142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.004680783307554626</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.004818629530519094</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004819642484483695</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.004509125665170149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>0.004503512538382081</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.004807603124881634</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>0.004828353212132552</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.004563968784407079</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>0.004557943561101013</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.004950560491397625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.004932406969554653</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.004310020803472541</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.004261346780568272</v>
+      </c>
+      <c r="C21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.00440358955580007</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.004365709870009266</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.004425849597553678</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.004416869473383161</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.004030912012122617</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.004038019994524265</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.003577801785550692</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003561826863216175</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.004857739425363959</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.004867606374686436</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.004610760523875173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>0.004598658545372236</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.004571298943823546</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.004627805643233054</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.004706086585726501</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.004755027956256444</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.004197141379160874</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.004215740703001293</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.004402036896117542</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.00440190005941607</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.00466175969216914</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004679005703662377</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.00439482897603018</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.004370467766355139</v>
+      </c>
+      <c r="C33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.003850186510632337</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.00385199691359889</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.00476250337830896</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004786849812163092</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.004397194220148065</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.004369930258262919</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.003844415962902881</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>0.003863090903930958</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.004882102026541357</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.004900884302237179</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.00453908353879498</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.00452948881322922</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.00405851888888005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.004067264604372879</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.004503400505237803</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.004554814359315242</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.004639242912113722</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>0.004636771060153148</v>
+      </c>
+      <c r="C42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.00354819305761597</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003541560146684461</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.004233971722007599</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.004223212038032554</v>
+      </c>
+      <c r="C44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.004694757181548349</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>0.004661079444363289</v>
+      </c>
+      <c r="C45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.004941876072500217</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.004930783232114095</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.004695426369022187</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.00470698905269802</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.004970258059716111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.004991031340284119</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.0044067645603023</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.004475928859253391</v>
+      </c>
+      <c r="C49">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.004671162130630841</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.00468128280021361</v>
+      </c>
+      <c r="C50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.004789609163604064</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004797281147741511</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.004624299906111978</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>0.004633844791234364</v>
+      </c>
+      <c r="C52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.004472527368780355</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.004493013742706254</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.005016146246305576</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.005016467686412436</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.004631450018913246</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.004662823627287981</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.004591726445610424</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.004576810428296171</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.004682967414502383</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>0.004693471278469708</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.004969168750637305</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.004990814766047117</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.003428028449339424</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.003411764472768594</v>
+      </c>
+      <c r="C59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.003518154435781354</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.003577071025499754</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.004400992180860807</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.004420929686918568</v>
+      </c>
+      <c r="C61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.004346143830737159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.004349481073930314</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.004460744481475432</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.004472157603576745</v>
+      </c>
+      <c r="C63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.003580477931749471</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.003559698410810299</v>
+      </c>
+      <c r="C64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.005223186045530066</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.005225683420288554</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.004689724316732994</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.004699090984329812</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.004557392351900732</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.004610094623405277</v>
+      </c>
+      <c r="C67">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.004708388674451953</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.004687266621169928</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.004449390178307875</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.004498467759714945</v>
+      </c>
+      <c r="C69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.003998477894404802</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.004014561708159917</v>
+      </c>
+      <c r="C70">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.004719997777030931</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.004726311098390151</v>
+      </c>
+      <c r="C71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.003863690121365196</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.003885213286592179</v>
+      </c>
+      <c r="C72">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.00394977384209236</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.003967183005563207</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.00471103676987556</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.0046668576969571</v>
+      </c>
+      <c r="C74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.004538289655669232</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.004562671205185997</v>
+      </c>
+      <c r="C75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.004673391188626398</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.004691182418211236</v>
+      </c>
+      <c r="C76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.004767669821625345</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.004755060086392219</v>
+      </c>
+      <c r="C77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.004411301785219913</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.004436530816893315</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.004818227824263934</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.00480708738552697</v>
+      </c>
+      <c r="C79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.00448670990744944</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.004413655780853426</v>
+      </c>
+      <c r="C80">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.004813820776682421</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.004817027348646027</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.004486357616093501</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.004447251692663876</v>
+      </c>
+      <c r="C82">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.004375001514071203</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.004366663669088161</v>
+      </c>
+      <c r="C83">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.004595071541274144</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.004584752198347085</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.00463325038334456</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.004627221667208226</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.004486969452126538</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004491692981537857</v>
+      </c>
+      <c r="C86">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.004239933915818545</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.004240736529974164</v>
+      </c>
+      <c r="C87">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.003905140326517407</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003906083227524225</v>
+      </c>
+      <c r="C88">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.004610495807316412</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.004604686433139839</v>
+      </c>
+      <c r="C89">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.003358466116322091</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.003334525179547031</v>
+      </c>
+      <c r="C90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.004471381150224512</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.004490156756030308</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.004436090364907886</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.004467673717026655</v>
+      </c>
+      <c r="C92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.004582730386447394</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004553411008128458</v>
+      </c>
+      <c r="C93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.004676428717925228</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.004670516955275588</v>
+      </c>
+      <c r="C94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.004790673663891245</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.004791962321481059</v>
+      </c>
+      <c r="C95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.004187711698386815</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>0.00419135980976649</v>
+      </c>
+      <c r="C96">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.004418187923865288</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.00441549004960939</v>
+      </c>
+      <c r="C97">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.004131426234365667</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.004122953322776506</v>
+      </c>
+      <c r="C98">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.004501348861471142</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.004535090044588258</v>
+      </c>
+      <c r="C99">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.003582777536761358</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>0.003574453957301051</v>
+      </c>
+      <c r="C100">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.004633720921825257</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.004632650104654351</v>
+      </c>
+      <c r="C101">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.004562969374636479</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>0.004539468215804075</v>
+      </c>
+      <c r="C102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.004444058947956505</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>0.004466744274085831</v>
+      </c>
+      <c r="C103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.004622513859971372</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>0.004627530894745252</v>
+      </c>
+      <c r="C104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.004590280371679236</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>0.004612911302273061</v>
+      </c>
+      <c r="C105">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.004659263439161155</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>0.004666969007347904</v>
+      </c>
+      <c r="C106">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.004014000864351715</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>0.003991392529154452</v>
+      </c>
+      <c r="C107">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.004354108718136778</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>0.004356430068089168</v>
+      </c>
+      <c r="C108">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.003487053917815768</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>0.003480387567150371</v>
+      </c>
+      <c r="C109">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.004369914931644519</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>0.004348535517063459</v>
+      </c>
+      <c r="C110">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.004381704232493679</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>0.00438795533486882</v>
+      </c>
+      <c r="C111">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.004724304192723345</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>0.004735779912434114</v>
+      </c>
+      <c r="C112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.004689551767909722</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>0.004678430377974086</v>
+      </c>
+      <c r="C113">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.003763606525551922</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>0.003758531663780802</v>
+      </c>
+      <c r="C114">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.004650037089618783</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>0.004690410769832166</v>
+      </c>
+      <c r="C115">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.004545404010612331</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>0.00453820168710965</v>
+      </c>
+      <c r="C116">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.004690856078678074</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>0.004693700481675048</v>
+      </c>
+      <c r="C117">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.004444395774047059</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>0.004454342997656834</v>
+      </c>
+      <c r="C118">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.004060419619225357</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>0.004085102645994794</v>
+      </c>
+      <c r="C119">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.004635910511965788</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>0.004608253514642648</v>
+      </c>
+      <c r="C120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.005112774600275659</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>0.005085552100852422</v>
+      </c>
+      <c r="C121">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.004508562978374456</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>0.004490740684224156</v>
+      </c>
+      <c r="C122">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.003321142498732291</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>0.003294062841485434</v>
+      </c>
+      <c r="C123">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.004340200608234616</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>0.004317347555200155</v>
+      </c>
+      <c r="C124">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.004412869381403335</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>0.004409919127921321</v>
+      </c>
+      <c r="C125">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.004575168145475673</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>0.004591455658853039</v>
+      </c>
+      <c r="C126">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.004912739849323949</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>0.004911799063312024</v>
+      </c>
+      <c r="C127">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.004702710713075771</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>0.004714905454211616</v>
+      </c>
+      <c r="C128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.004929994149901889</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>0.004942272955445528</v>
+      </c>
+      <c r="C129">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.004903561868248993</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>0.00488257909370258</v>
+      </c>
+      <c r="C130">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.002885931385511768</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>0.002881892143121749</v>
+      </c>
+      <c r="C131">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.004353078394298505</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>0.004369125573409775</v>
+      </c>
+      <c r="C132">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.004606817068783882</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>0.004611198793505432</v>
+      </c>
+      <c r="C133">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.004736306609758901</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>0.00473546814495737</v>
+      </c>
+      <c r="C134">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.004348393299383605</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>0.00439015466748429</v>
+      </c>
+      <c r="C135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.004413190050089289</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>0.004410665513965578</v>
+      </c>
+      <c r="C136">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.004473704521866268</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>0.004485637309785495</v>
+      </c>
+      <c r="C137">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.004439611632391569</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>0.004443465071169155</v>
+      </c>
+      <c r="C138">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.004473465071257228</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>0.004501718933570301</v>
+      </c>
+      <c r="C139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.004605079882248786</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>0.00466114865004793</v>
+      </c>
+      <c r="C140">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.004230978928380215</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>0.004225891049042667</v>
+      </c>
+      <c r="C141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.004471270529760567</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>0.004431038512110275</v>
+      </c>
+      <c r="C142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.003789341885047211</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>0.003793486640961755</v>
+      </c>
+      <c r="C143">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.00425657973918985</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>0.004237809876890556</v>
+      </c>
+      <c r="C144">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.004143015662184708</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>0.004117682104539549</v>
+      </c>
+      <c r="C145">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.004092257109193646</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>0.00410726093009241</v>
+      </c>
+      <c r="C146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.004817934068175405</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <v>0.00483334544670515</v>
+      </c>
+      <c r="C147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.004636270178727023</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+        <v>0.004655000954699312</v>
+      </c>
+      <c r="C148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.004251921107679885</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
+        <v>0.004245391926841187</v>
+      </c>
+      <c r="C149">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.004935448830892514</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>0.004926988885126745</v>
+      </c>
+      <c r="C150">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.00437353329343843</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <v>0.00438609244312616</v>
+      </c>
+      <c r="C151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.004147912806524347</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
+        <v>0.004155564920898926</v>
+      </c>
+      <c r="C152">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.004617589908554709</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+        <v>0.00462276175880155</v>
+      </c>
+      <c r="C153">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.004088809256407917</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>0.004065657120162919</v>
+      </c>
+      <c r="C154">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.004260043408738931</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
+        <v>0.004273861013987928</v>
+      </c>
+      <c r="C155">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.004789017117606672</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
+        <v>0.004763049332039291</v>
+      </c>
+      <c r="C156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.004212054888911803</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
+        <v>0.004237393235927579</v>
+      </c>
+      <c r="C157">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.003615678880772666</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
+        <v>0.00359657304963682</v>
+      </c>
+      <c r="C158">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.004483637804835081</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>0.004479031521103783</v>
+      </c>
+      <c r="C159">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.004448828823988394</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
+        <v>0.004410017753234289</v>
+      </c>
+      <c r="C160">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:2">
+      <c r="C161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.003627877180988489</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
+        <v>0.003623893651486418</v>
+      </c>
+      <c r="C162">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.004643022695479615</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
+        <v>0.004639986746352925</v>
+      </c>
+      <c r="C163">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.004606640719044364</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
+        <v>0.004560913138861708</v>
+      </c>
+      <c r="C164">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.004612680058758718</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
+        <v>0.004617049608531434</v>
+      </c>
+      <c r="C165">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.002901665444908002</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
+        <v>0.002936042398261475</v>
+      </c>
+      <c r="C166">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.004601506292350336</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
+        <v>0.004594989946426402</v>
+      </c>
+      <c r="C167">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.004615972860067934</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+        <v>0.004656252381378266</v>
+      </c>
+      <c r="C168">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.004692615366331679</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
+        <v>0.004655639500018099</v>
+      </c>
+      <c r="C169">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.004199227021791168</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
+        <v>0.004196680321761922</v>
+      </c>
+      <c r="C170">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.003664655071077204</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
+        <v>0.00366549314848713</v>
+      </c>
+      <c r="C171">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.004110892238955457</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
+        <v>0.004110300085698245</v>
+      </c>
+      <c r="C172">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.004490756329387907</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
+        <v>0.004534617383660562</v>
+      </c>
+      <c r="C173">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.004618935827148141</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
+        <v>0.004584304570165369</v>
+      </c>
+      <c r="C174">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.004510292483444798</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
+        <v>0.004501948225217218</v>
+      </c>
+      <c r="C175">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.004839355196224363</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
+        <v>0.004836186644725442</v>
+      </c>
+      <c r="C176">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.004264461529963981</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
+        <v>0.004259310553977855</v>
+      </c>
+      <c r="C177">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.003824101893390589</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
+        <v>0.003797781148596733</v>
+      </c>
+      <c r="C178">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.004178044867860781</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
+        <v>0.004174315662205355</v>
+      </c>
+      <c r="C179">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.004071236504945422</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
+        <v>0.004074230461092065</v>
+      </c>
+      <c r="C180">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.004402247300123844</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
+        <v>0.004389935787238854</v>
+      </c>
+      <c r="C181">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.00430780481831146</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
+        <v>0.004290575339448389</v>
+      </c>
+      <c r="C182">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.00460327202321564</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
+        <v>0.004613528519049157</v>
+      </c>
+      <c r="C183">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.004720842773119011</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
+        <v>0.004725356125395862</v>
+      </c>
+      <c r="C184">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.00476158964535579</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
+        <v>0.004790279658725518</v>
+      </c>
+      <c r="C185">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.004368265384436121</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
+        <v>0.004377138188069502</v>
+      </c>
+      <c r="C186">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.004262045207967209</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
+        <v>0.004275402460370282</v>
+      </c>
+      <c r="C187">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.004487684406994152</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
+        <v>0.004526539010701215</v>
+      </c>
+      <c r="C188">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.004294595639914683</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
+        <v>0.004292544743586989</v>
+      </c>
+      <c r="C189">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.003957315572963237</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
+        <v>0.003948127150820573</v>
+      </c>
+      <c r="C190">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.004479490602422968</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
+        <v>0.004473433349823565</v>
+      </c>
+      <c r="C191">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.004852413214421009</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
+        <v>0.004840407582552772</v>
+      </c>
+      <c r="C192">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.002934619815235611</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
+        <v>0.002928079050452008</v>
+      </c>
+      <c r="C193">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.003455238364322169</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
+        <v>0.003424936298365248</v>
+      </c>
+      <c r="C194">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.004581432196143645</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
+        <v>0.00459449862960633</v>
+      </c>
+      <c r="C195">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.002742254916860663</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
+        <v>0.002743445004091383</v>
+      </c>
+      <c r="C196">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.002941383662409122</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
+        <v>0.002936925492812329</v>
+      </c>
+      <c r="C197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.002712091515158598</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
+        <v>0.002688510881841648</v>
+      </c>
+      <c r="C198">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.002247199478223508</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
+        <v>0.002248552915840188</v>
+      </c>
+      <c r="C199">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.002687808860698142</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
+        <v>0.00267768705933442</v>
+      </c>
+      <c r="C200">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.002737430518013373</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
+        <v>0.002729075324575242</v>
+      </c>
+      <c r="C201">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.002544702038923981</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
+        <v>0.002529812447157518</v>
+      </c>
+      <c r="C202">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.002486242255633934</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
+        <v>0.002487253433202082</v>
+      </c>
+      <c r="C203">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.002861959158514943</v>
+        <v>0.002864468142878906</v>
+      </c>
+      <c r="C204">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/CutRE/DM/Características_brilloDM.xlsx
+++ b/CutRE/DM/Características_brilloDM.xlsx
@@ -396,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.004273115978899017</v>
+        <v>0.01676903563005249</v>
       </c>
       <c r="C2">
         <v>116.0152318840579</v>
@@ -407,7 +407,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.004581245692273947</v>
+        <v>0.0164620057886466</v>
       </c>
       <c r="C3">
         <v>201.8761304347826</v>
@@ -418,7 +418,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.003706488497235067</v>
+        <v>0.01722947359791792</v>
       </c>
       <c r="C4">
         <v>146.3939536231884</v>
@@ -429,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004528798148948085</v>
+        <v>0.01682792496402144</v>
       </c>
       <c r="C5">
         <v>145.3413507246377</v>
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.003900172958525403</v>
+        <v>0.01820506722103268</v>
       </c>
       <c r="C6">
         <v>55.48088550724638</v>
@@ -451,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.00464666756149065</v>
+        <v>0.01705105005942527</v>
       </c>
       <c r="C7">
         <v>182.1295811594203</v>
@@ -462,7 +462,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.004432456404762157</v>
+        <v>0.01749144567120287</v>
       </c>
       <c r="C8">
         <v>154.6768797101449</v>
@@ -473,7 +473,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.004886264107201078</v>
+        <v>0.0171217297640317</v>
       </c>
       <c r="C9">
         <v>115.7643753623188</v>
@@ -484,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.004748097691436746</v>
+        <v>0.01744346340518653</v>
       </c>
       <c r="C10">
         <v>143.882468115942</v>
@@ -495,7 +495,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.004540363183584604</v>
+        <v>0.01807819432212748</v>
       </c>
       <c r="C11">
         <v>88.78143333333334</v>
@@ -506,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.004475204816547345</v>
+        <v>0.01760839661918916</v>
       </c>
       <c r="C12">
         <v>172.2531478260869</v>
@@ -517,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.004402912603502444</v>
+        <v>0.01823899472015255</v>
       </c>
       <c r="C13">
         <v>103.4174898550725</v>
@@ -528,7 +528,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.004541859831631569</v>
+        <v>0.0174572486935473</v>
       </c>
       <c r="C14">
         <v>196.1944724637681</v>
@@ -539,7 +539,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.004650344800686142</v>
+        <v>0.01681264555584117</v>
       </c>
       <c r="C15">
         <v>134.3898420289855</v>
@@ -550,7 +550,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.004818629530519094</v>
+        <v>0.01679232393107635</v>
       </c>
       <c r="C16">
         <v>90.19832608695653</v>
@@ -561,7 +561,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.004509125665170149</v>
+        <v>0.0167986071403099</v>
       </c>
       <c r="C17">
         <v>57.47792898550724</v>
@@ -572,7 +572,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.004807603124881634</v>
+        <v>0.01711812332337024</v>
       </c>
       <c r="C18">
         <v>86.80393623188404</v>
@@ -583,7 +583,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.004563968784407079</v>
+        <v>0.01749781557701093</v>
       </c>
       <c r="C19">
         <v>150.9669652173913</v>
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.004950560491397625</v>
+        <v>0.01829668029301807</v>
       </c>
       <c r="C20">
         <v>71.04197101449273</v>
@@ -605,7 +605,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.004310020803472541</v>
+        <v>0.01698114315151768</v>
       </c>
       <c r="C21">
         <v>182.1113</v>
@@ -616,7 +616,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.00440358955580007</v>
+        <v>0.01722180806331715</v>
       </c>
       <c r="C22">
         <v>161.7379768115942</v>
@@ -627,7 +627,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.004425849597553678</v>
+        <v>0.01686678753327877</v>
       </c>
       <c r="C23">
         <v>137.0183275362319</v>
@@ -638,7 +638,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.004030912012122617</v>
+        <v>0.01566352391283199</v>
       </c>
       <c r="C24">
         <v>230.3047420289855</v>
@@ -649,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.003577801785550692</v>
+        <v>0.01754903424635048</v>
       </c>
       <c r="C25">
         <v>176.8750855072464</v>
@@ -660,7 +660,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.004857739425363959</v>
+        <v>0.01793281623190561</v>
       </c>
       <c r="C26">
         <v>62.74815652173912</v>
@@ -671,7 +671,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.004610760523875173</v>
+        <v>0.01838754324649982</v>
       </c>
       <c r="C27">
         <v>66.56739420289856</v>
@@ -682,7 +682,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.004571298943823546</v>
+        <v>0.01743398687009185</v>
       </c>
       <c r="C28">
         <v>108.322847826087</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.004706086585726501</v>
+        <v>0.01688727574260687</v>
       </c>
       <c r="C29">
         <v>105.8615971014493</v>
@@ -704,7 +704,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.004197141379160874</v>
+        <v>0.01621074493505663</v>
       </c>
       <c r="C30">
         <v>144.0911666666667</v>
@@ -715,7 +715,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.004402036896117542</v>
+        <v>0.01786253044315007</v>
       </c>
       <c r="C31">
         <v>145.1377449275363</v>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.00466175969216914</v>
+        <v>0.01775797310820632</v>
       </c>
       <c r="C32">
         <v>104.4195753623188</v>
@@ -737,7 +737,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.00439482897603018</v>
+        <v>0.01775858469695596</v>
       </c>
       <c r="C33">
         <v>153.8753971014493</v>
@@ -748,7 +748,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.003850186510632337</v>
+        <v>0.01772224882258598</v>
       </c>
       <c r="C34">
         <v>96.37622173913043</v>
@@ -759,7 +759,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.00476250337830896</v>
+        <v>0.01774089505556543</v>
       </c>
       <c r="C35">
         <v>109.8778898550725</v>
@@ -770,7 +770,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.004397194220148065</v>
+        <v>0.01652009400084522</v>
       </c>
       <c r="C36">
         <v>175.4148057971015</v>
@@ -781,7 +781,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.003844415962902881</v>
+        <v>0.01700011020347079</v>
       </c>
       <c r="C37">
         <v>102.2072463768116</v>
@@ -792,7 +792,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.004882102026541357</v>
+        <v>0.01747765685322508</v>
       </c>
       <c r="C38">
         <v>103.0234144927536</v>
@@ -803,7 +803,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.00453908353879498</v>
+        <v>0.01654826754518742</v>
       </c>
       <c r="C39">
         <v>69.91094927536231</v>
@@ -814,7 +814,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.00405851888888005</v>
+        <v>0.01629331709995277</v>
       </c>
       <c r="C40">
         <v>168.929584057971</v>
@@ -825,7 +825,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.004503400505237803</v>
+        <v>0.01699615531388828</v>
       </c>
       <c r="C41">
         <v>142.3475101449276</v>
@@ -836,7 +836,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.004639242912113722</v>
+        <v>0.0167882993254369</v>
       </c>
       <c r="C42">
         <v>182.9593753623188</v>
@@ -847,7 +847,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.00354819305761597</v>
+        <v>0.01851729604544857</v>
       </c>
       <c r="C43">
         <v>24.89002608695652</v>
@@ -858,7 +858,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.004233971722007599</v>
+        <v>0.01651278001304389</v>
       </c>
       <c r="C44">
         <v>160.5633666666667</v>
@@ -869,7 +869,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.004694757181548349</v>
+        <v>0.01746623752137021</v>
       </c>
       <c r="C45">
         <v>177.1537913043478</v>
@@ -880,7 +880,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.004941876072500217</v>
+        <v>0.0180537833739869</v>
       </c>
       <c r="C46">
         <v>118.4718695652174</v>
@@ -891,7 +891,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.004695426369022187</v>
+        <v>0.01734599407344558</v>
       </c>
       <c r="C47">
         <v>120.1164072463768</v>
@@ -902,7 +902,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.004970258059716111</v>
+        <v>0.01744453237274394</v>
       </c>
       <c r="C48">
         <v>77.20719710144928</v>
@@ -913,7 +913,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.0044067645603023</v>
+        <v>0.01799723509495572</v>
       </c>
       <c r="C49">
         <v>190.9851637681159</v>
@@ -924,7 +924,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.004671162130630841</v>
+        <v>0.0176298684010999</v>
       </c>
       <c r="C50">
         <v>189.6191898550724</v>
@@ -935,7 +935,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.004789609163604064</v>
+        <v>0.01713485822556859</v>
       </c>
       <c r="C51">
         <v>109.6262623188406</v>
@@ -946,7 +946,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.004624299906111978</v>
+        <v>0.01721994059859768</v>
       </c>
       <c r="C52">
         <v>195.9465347826087</v>
@@ -957,7 +957,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.004472527368780355</v>
+        <v>0.01697457909491022</v>
       </c>
       <c r="C53">
         <v>123.4215797101449</v>
@@ -968,7 +968,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.005016146246305576</v>
+        <v>0.01684245719224189</v>
       </c>
       <c r="C54">
         <v>100.2820637681159</v>
@@ -979,7 +979,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.004631450018913246</v>
+        <v>0.01687821492476769</v>
       </c>
       <c r="C55">
         <v>62.7483695652174</v>
@@ -990,7 +990,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.004591726445610424</v>
+        <v>0.01670936999327034</v>
       </c>
       <c r="C56">
         <v>94.18088840579709</v>
@@ -1001,7 +1001,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.004682967414502383</v>
+        <v>0.01748829587843358</v>
       </c>
       <c r="C57">
         <v>96.98924927536231</v>
@@ -1012,7 +1012,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.004969168750637305</v>
+        <v>0.01793328459526113</v>
       </c>
       <c r="C58">
         <v>66.04463768115941</v>
@@ -1023,7 +1023,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.003428028449339424</v>
+        <v>0.01304013903809289</v>
       </c>
       <c r="C59">
         <v>205.1688434782608</v>
@@ -1034,7 +1034,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.003518154435781354</v>
+        <v>0.01576390796949341</v>
       </c>
       <c r="C60">
         <v>229.5116797101449</v>
@@ -1045,7 +1045,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.004400992180860807</v>
+        <v>0.0173676369639933</v>
       </c>
       <c r="C61">
         <v>126.8605565217391</v>
@@ -1056,7 +1056,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.004346143830737159</v>
+        <v>0.0169812630102447</v>
       </c>
       <c r="C62">
         <v>172.0440318840579</v>
@@ -1067,7 +1067,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.004460744481475432</v>
+        <v>0.01654947422846221</v>
       </c>
       <c r="C63">
         <v>215.9988217391304</v>
@@ -1078,7 +1078,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.003580477931749471</v>
+        <v>0.01763866405939357</v>
       </c>
       <c r="C64">
         <v>161.5357956521739</v>
@@ -1089,7 +1089,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.005223186045530066</v>
+        <v>0.01845722563614693</v>
       </c>
       <c r="C65">
         <v>34.54139855072464</v>
@@ -1100,7 +1100,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.004689724316732994</v>
+        <v>0.01799352616797836</v>
       </c>
       <c r="C66">
         <v>47.23503478260869</v>
@@ -1111,7 +1111,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.004557392351900732</v>
+        <v>0.01729671922058127</v>
       </c>
       <c r="C67">
         <v>99.80204637681159</v>
@@ -1122,7 +1122,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.004708388674451953</v>
+        <v>0.01764278445068609</v>
       </c>
       <c r="C68">
         <v>89.3112072463768</v>
@@ -1133,7 +1133,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.004449390178307875</v>
+        <v>0.01727516232531169</v>
       </c>
       <c r="C69">
         <v>148.9158188405797</v>
@@ -1144,7 +1144,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.003998477894404802</v>
+        <v>0.01741148160396067</v>
       </c>
       <c r="C70">
         <v>129.4291927536232</v>
@@ -1155,7 +1155,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.004719997777030931</v>
+        <v>0.01768273665284577</v>
       </c>
       <c r="C71">
         <v>108.8546652173913</v>
@@ -1166,7 +1166,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.003863690121365196</v>
+        <v>0.01737723402215821</v>
       </c>
       <c r="C72">
         <v>124.974547826087</v>
@@ -1177,7 +1177,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.00394977384209236</v>
+        <v>0.01769666312298133</v>
       </c>
       <c r="C73">
         <v>98.96806376811593</v>
@@ -1188,7 +1188,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.00471103676987556</v>
+        <v>0.01788050470358526</v>
       </c>
       <c r="C74">
         <v>117.7979217391304</v>
@@ -1199,7 +1199,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.004538289655669232</v>
+        <v>0.01719178814398624</v>
       </c>
       <c r="C75">
         <v>137.9996594202899</v>
@@ -1210,7 +1210,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.004673391188626398</v>
+        <v>0.01667285149027915</v>
       </c>
       <c r="C76">
         <v>91.94769275362319</v>
@@ -1221,7 +1221,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.004767669821625345</v>
+        <v>0.01749476539008587</v>
       </c>
       <c r="C77">
         <v>81.50018695652173</v>
@@ -1232,7 +1232,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.004411301785219913</v>
+        <v>0.01582543477115305</v>
       </c>
       <c r="C78">
         <v>136.0376579710145</v>
@@ -1243,7 +1243,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.004818227824263934</v>
+        <v>0.01781051804804811</v>
       </c>
       <c r="C79">
         <v>123.7479956521739</v>
@@ -1254,7 +1254,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.00448670990744944</v>
+        <v>0.01673036389749715</v>
       </c>
       <c r="C80">
         <v>161.0017927536232</v>
@@ -1265,7 +1265,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.004813820776682421</v>
+        <v>0.01769506326097036</v>
       </c>
       <c r="C81">
         <v>26.60487536231884</v>
@@ -1276,7 +1276,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.004486357616093501</v>
+        <v>0.01689311901751868</v>
       </c>
       <c r="C82">
         <v>149.2542985507246</v>
@@ -1287,7 +1287,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.004375001514071203</v>
+        <v>0.0173839892203424</v>
       </c>
       <c r="C83">
         <v>191.9366304347826</v>
@@ -1298,7 +1298,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.004595071541274144</v>
+        <v>0.01701021121618145</v>
       </c>
       <c r="C84">
         <v>111.9399246376811</v>
@@ -1309,7 +1309,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.00463325038334456</v>
+        <v>0.01661719606982801</v>
       </c>
       <c r="C85">
         <v>122.1677115942029</v>
@@ -1320,7 +1320,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.004486969452126538</v>
+        <v>0.01778687414707119</v>
       </c>
       <c r="C86">
         <v>187.6360130434783</v>
@@ -1331,7 +1331,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.004239933915818545</v>
+        <v>0.01680834639527594</v>
       </c>
       <c r="C87">
         <v>204.0204028985507</v>
@@ -1342,7 +1342,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.003905140326517407</v>
+        <v>0.01587353276355208</v>
       </c>
       <c r="C88">
         <v>138.7575623188406</v>
@@ -1353,7 +1353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.004610495807316412</v>
+        <v>0.01743221113907637</v>
       </c>
       <c r="C89">
         <v>195.7883173913043</v>
@@ -1364,7 +1364,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.003358466116322091</v>
+        <v>0.01743440266836338</v>
       </c>
       <c r="C90">
         <v>89.32094492753623</v>
@@ -1375,7 +1375,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.004471381150224512</v>
+        <v>0.01664886419707518</v>
       </c>
       <c r="C91">
         <v>119.2996260869565</v>
@@ -1386,7 +1386,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.004436090364907886</v>
+        <v>0.01699681756550921</v>
       </c>
       <c r="C92">
         <v>59.84568260869565</v>
@@ -1397,7 +1397,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.004582730386447394</v>
+        <v>0.01723489501943481</v>
       </c>
       <c r="C93">
         <v>99.30565217391305</v>
@@ -1408,7 +1408,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.004676428717925228</v>
+        <v>0.01775231710793687</v>
       </c>
       <c r="C94">
         <v>74.61148695652173</v>
@@ -1419,7 +1419,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.004790673663891245</v>
+        <v>0.01800928709596218</v>
       </c>
       <c r="C95">
         <v>63.86368405797101</v>
@@ -1430,7 +1430,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.004187711698386815</v>
+        <v>0.01660410482739654</v>
       </c>
       <c r="C96">
         <v>234.7927579710145</v>
@@ -1441,7 +1441,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.004418187923865288</v>
+        <v>0.01725246239159985</v>
       </c>
       <c r="C97">
         <v>146.8123130434782</v>
@@ -1452,7 +1452,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.004131426234365667</v>
+        <v>0.0163236434989247</v>
       </c>
       <c r="C98">
         <v>160.5480333333333</v>
@@ -1463,7 +1463,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.004501348861471142</v>
+        <v>0.01701130756003779</v>
       </c>
       <c r="C99">
         <v>177.3021130434782</v>
@@ -1474,7 +1474,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.003582777536761358</v>
+        <v>0.01768961432466234</v>
       </c>
       <c r="C100">
         <v>159.2071739130435</v>
@@ -1485,7 +1485,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.004633720921825257</v>
+        <v>0.01706812368932888</v>
       </c>
       <c r="C101">
         <v>34.24209710144927</v>
@@ -1496,7 +1496,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.004562969374636479</v>
+        <v>0.01703646017289044</v>
       </c>
       <c r="C102">
         <v>32.69905652173913</v>
@@ -1507,7 +1507,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.004444058947956505</v>
+        <v>0.01682510296104405</v>
       </c>
       <c r="C103">
         <v>130.0214594202899</v>
@@ -1518,7 +1518,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.004622513859971372</v>
+        <v>0.01738400311026603</v>
       </c>
       <c r="C104">
         <v>75.20497681159421</v>
@@ -1529,7 +1529,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.004590280371679236</v>
+        <v>0.01720814094274317</v>
       </c>
       <c r="C105">
         <v>102.9621782608695</v>
@@ -1540,7 +1540,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.004659263439161155</v>
+        <v>0.01768307965671995</v>
       </c>
       <c r="C106">
         <v>117.7206231884058</v>
@@ -1551,7 +1551,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.004014000864351715</v>
+        <v>0.01774872648175584</v>
       </c>
       <c r="C107">
         <v>130.2360956521739</v>
@@ -1562,7 +1562,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.004354108718136778</v>
+        <v>0.01752530657469229</v>
       </c>
       <c r="C108">
         <v>109.7030130434783</v>
@@ -1573,7 +1573,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.003487053917815768</v>
+        <v>0.01424228841905299</v>
       </c>
       <c r="C109">
         <v>101.2779623188406</v>
@@ -1584,7 +1584,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.004369914931644519</v>
+        <v>0.01660061385934484</v>
       </c>
       <c r="C110">
         <v>108.3651782608696</v>
@@ -1595,7 +1595,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.004381704232493679</v>
+        <v>0.01731550977704234</v>
       </c>
       <c r="C111">
         <v>95.06932898550724</v>
@@ -1606,7 +1606,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.004724304192723345</v>
+        <v>0.01735177238539936</v>
       </c>
       <c r="C112">
         <v>91.9873231884058</v>
@@ -1617,7 +1617,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.004689551767909722</v>
+        <v>0.01721716684422228</v>
       </c>
       <c r="C113">
         <v>82.65541014492753</v>
@@ -1628,7 +1628,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.003763606525551922</v>
+        <v>0.01729428422884948</v>
       </c>
       <c r="C114">
         <v>138.7320130434783</v>
@@ -1639,7 +1639,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.004650037089618783</v>
+        <v>0.01766176882498311</v>
       </c>
       <c r="C115">
         <v>104.0456420289855</v>
@@ -1650,7 +1650,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.004545404010612331</v>
+        <v>0.01717976061411406</v>
       </c>
       <c r="C116">
         <v>67.76190579710145</v>
@@ -1661,7 +1661,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.004690856078678074</v>
+        <v>0.01753922075328746</v>
       </c>
       <c r="C117">
         <v>103.7316333333333</v>
@@ -1672,7 +1672,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.004444395774047059</v>
+        <v>0.01678472905840758</v>
       </c>
       <c r="C118">
         <v>199.0711942028985</v>
@@ -1683,7 +1683,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.004060419619225357</v>
+        <v>0.01646447777683778</v>
       </c>
       <c r="C119">
         <v>143.7122768115942</v>
@@ -1694,7 +1694,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.004635910511965788</v>
+        <v>0.01715993668710223</v>
       </c>
       <c r="C120">
         <v>126.9092985507246</v>
@@ -1705,7 +1705,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.005112774600275659</v>
+        <v>0.01760750404531511</v>
       </c>
       <c r="C121">
         <v>62.53281304347826</v>
@@ -1716,7 +1716,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.004508562978374456</v>
+        <v>0.0175947214964163</v>
       </c>
       <c r="C122">
         <v>194.9423913043478</v>
@@ -1727,7 +1727,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.003321142498732291</v>
+        <v>0.01030167294769378</v>
       </c>
       <c r="C123">
         <v>224.7068275362319</v>
@@ -1738,7 +1738,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.004340200608234616</v>
+        <v>0.01647872842128194</v>
       </c>
       <c r="C124">
         <v>160.762684057971</v>
@@ -1749,7 +1749,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.004412869381403335</v>
+        <v>0.01741137270681112</v>
       </c>
       <c r="C125">
         <v>193.1458942028985</v>
@@ -1760,7 +1760,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.004575168145475673</v>
+        <v>0.01682562177955578</v>
       </c>
       <c r="C126">
         <v>136.247584057971</v>
@@ -1771,7 +1771,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.004912739849323949</v>
+        <v>0.01712944844002119</v>
       </c>
       <c r="C127">
         <v>64.427884057971</v>
@@ -1782,7 +1782,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.004702710713075771</v>
+        <v>0.01768722432958811</v>
       </c>
       <c r="C128">
         <v>114.5178246376811</v>
@@ -1793,7 +1793,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.004929994149901889</v>
+        <v>0.01847507317927505</v>
       </c>
       <c r="C129">
         <v>67.02278550724637</v>
@@ -1804,7 +1804,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.004903561868248993</v>
+        <v>0.01827752056233959</v>
       </c>
       <c r="C130">
         <v>66.32022318840581</v>
@@ -1815,7 +1815,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.002885931385511768</v>
+        <v>0.005947117936912876</v>
       </c>
       <c r="C131">
         <v>246.8418695652174</v>
@@ -1826,7 +1826,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.004353078394298505</v>
+        <v>0.01669877520997826</v>
       </c>
       <c r="C132">
         <v>235.9890913043478</v>
@@ -1837,7 +1837,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.004606817068783882</v>
+        <v>0.01710389412794182</v>
       </c>
       <c r="C133">
         <v>197.261015942029</v>
@@ -1848,7 +1848,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.004736306609758901</v>
+        <v>0.0158248682496721</v>
       </c>
       <c r="C134">
         <v>132.9128101449275</v>
@@ -1859,7 +1859,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.004348393299383605</v>
+        <v>0.01673616181298162</v>
       </c>
       <c r="C135">
         <v>133.6526014492754</v>
@@ -1870,7 +1870,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.004413190050089289</v>
+        <v>0.01637776749332012</v>
       </c>
       <c r="C136">
         <v>143.3907260869565</v>
@@ -1881,7 +1881,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.004473704521866268</v>
+        <v>0.01719530929089581</v>
       </c>
       <c r="C137">
         <v>116.2684072463768</v>
@@ -1892,7 +1892,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.004439611632391569</v>
+        <v>0.01677332199660833</v>
       </c>
       <c r="C138">
         <v>148.7160376811594</v>
@@ -1903,7 +1903,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.004473465071257228</v>
+        <v>0.01688836795528871</v>
       </c>
       <c r="C139">
         <v>145.5295594202898</v>
@@ -1914,7 +1914,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.004605079882248786</v>
+        <v>0.01698039497009249</v>
       </c>
       <c r="C140">
         <v>108.503215942029</v>
@@ -1925,7 +1925,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.004230978928380215</v>
+        <v>0.01713573313729021</v>
       </c>
       <c r="C141">
         <v>109.8521985507246</v>
@@ -1936,7 +1936,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.004471270529760567</v>
+        <v>0.01775644757451888</v>
       </c>
       <c r="C142">
         <v>135.0589014492753</v>
@@ -1947,7 +1947,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.003789341885047211</v>
+        <v>0.01778105376618912</v>
       </c>
       <c r="C143">
         <v>114.1663811594203</v>
@@ -1958,7 +1958,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.00425657973918985</v>
+        <v>0.0177094201755239</v>
       </c>
       <c r="C144">
         <v>132.412952173913</v>
@@ -1969,7 +1969,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.004143015662184708</v>
+        <v>0.01677846034803646</v>
       </c>
       <c r="C145">
         <v>215.8666376811594</v>
@@ -1980,7 +1980,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.004092257109193646</v>
+        <v>0.01661869566178277</v>
       </c>
       <c r="C146">
         <v>89.18990434782609</v>
@@ -1991,7 +1991,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.004817934068175405</v>
+        <v>0.017860904261835</v>
       </c>
       <c r="C147">
         <v>79.85891594202899</v>
@@ -2002,7 +2002,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.004636270178727023</v>
+        <v>0.01674320434049303</v>
       </c>
       <c r="C148">
         <v>88.25981304347825</v>
@@ -2013,7 +2013,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.004251921107679885</v>
+        <v>0.01795722141299091</v>
       </c>
       <c r="C149">
         <v>156.7885260869565</v>
@@ -2024,7 +2024,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.004935448830892514</v>
+        <v>0.01674338806786384</v>
       </c>
       <c r="C150">
         <v>105.6144014492753</v>
@@ -2035,7 +2035,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.00437353329343843</v>
+        <v>0.0170490879966308</v>
       </c>
       <c r="C151">
         <v>148.9413014492753</v>
@@ -2046,7 +2046,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.004147912806524347</v>
+        <v>0.01644030033468332</v>
       </c>
       <c r="C152">
         <v>154.0547405797101</v>
@@ -2057,7 +2057,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.004617589908554709</v>
+        <v>0.01749582149154143</v>
       </c>
       <c r="C153">
         <v>85.10351449275362</v>
@@ -2068,7 +2068,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.004088809256407917</v>
+        <v>0.01564941278275895</v>
       </c>
       <c r="C154">
         <v>194.5835347826087</v>
@@ -2079,7 +2079,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.004260043408738931</v>
+        <v>0.01625362952663714</v>
       </c>
       <c r="C155">
         <v>133.8719666666667</v>
@@ -2090,7 +2090,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.004789017117606672</v>
+        <v>0.0180853790997358</v>
       </c>
       <c r="C156">
         <v>67.14415942028985</v>
@@ -2101,7 +2101,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.004212054888911803</v>
+        <v>0.01751002538274532</v>
       </c>
       <c r="C157">
         <v>214.1368884057971</v>
@@ -2112,7 +2112,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.003615678880772666</v>
+        <v>0.009241860234050513</v>
       </c>
       <c r="C158">
         <v>225.1609898550725</v>
@@ -2123,7 +2123,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.004483637804835081</v>
+        <v>0.01726135187567153</v>
       </c>
       <c r="C159">
         <v>179.5027289855072</v>
@@ -2134,7 +2134,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.004448828823988394</v>
+        <v>0.01673571534595369</v>
       </c>
       <c r="C160">
         <v>189.7186188405797</v>
@@ -2145,7 +2145,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -2156,7 +2156,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.003627877180988489</v>
+        <v>0.01547214973882675</v>
       </c>
       <c r="C162">
         <v>150.2823434782609</v>
@@ -2167,7 +2167,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.004643022695479615</v>
+        <v>0.01719396915578376</v>
       </c>
       <c r="C163">
         <v>62.55768405797102</v>
@@ -2178,7 +2178,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.004606640719044364</v>
+        <v>0.01782802450430172</v>
       </c>
       <c r="C164">
         <v>120.5685217391304</v>
@@ -2189,7 +2189,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.004612680058758718</v>
+        <v>0.01786002683190078</v>
       </c>
       <c r="C165">
         <v>66.42419710144927</v>
@@ -2200,7 +2200,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.002901665444908002</v>
+        <v>0.003650095124292621</v>
       </c>
       <c r="C166">
         <v>246.8188405797102</v>
@@ -2211,7 +2211,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.004601506292350336</v>
+        <v>0.01700522514284493</v>
       </c>
       <c r="C167">
         <v>221.5807594202898</v>
@@ -2222,7 +2222,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.004615972860067934</v>
+        <v>0.01692944431317554</v>
       </c>
       <c r="C168">
         <v>212.338452173913</v>
@@ -2233,7 +2233,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.004692615366331679</v>
+        <v>0.01648882120615254</v>
       </c>
       <c r="C169">
         <v>106.3670188405797</v>
@@ -2244,7 +2244,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.004199227021791168</v>
+        <v>0.0165618611578965</v>
       </c>
       <c r="C170">
         <v>146.3552</v>
@@ -2255,7 +2255,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.003664655071077204</v>
+        <v>0.01747253447083321</v>
       </c>
       <c r="C171">
         <v>170.1716173913044</v>
@@ -2266,7 +2266,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.004110892238955457</v>
+        <v>0.01704735063869887</v>
       </c>
       <c r="C172">
         <v>88.08440434782608</v>
@@ -2277,7 +2277,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.004490756329387907</v>
+        <v>0.01735540784225429</v>
       </c>
       <c r="C173">
         <v>121.2633652173913</v>
@@ -2288,7 +2288,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.004618935827148141</v>
+        <v>0.01687580747769654</v>
       </c>
       <c r="C174">
         <v>133.893984057971</v>
@@ -2299,7 +2299,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.004510292483444798</v>
+        <v>0.01707540879314309</v>
       </c>
       <c r="C175">
         <v>142.629652173913</v>
@@ -2310,7 +2310,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.004839355196224363</v>
+        <v>0.01751560360977033</v>
       </c>
       <c r="C176">
         <v>76.08600144927537</v>
@@ -2321,7 +2321,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.004264461529963981</v>
+        <v>0.01680622147436208</v>
       </c>
       <c r="C177">
         <v>135.2053188405797</v>
@@ -2332,7 +2332,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.003824101893390589</v>
+        <v>0.01778585471041478</v>
       </c>
       <c r="C178">
         <v>107.595115942029</v>
@@ -2343,7 +2343,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.004178044867860781</v>
+        <v>0.01785864659116621</v>
       </c>
       <c r="C179">
         <v>143.4559289855073</v>
@@ -2354,7 +2354,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.004071236504945422</v>
+        <v>0.01630652396690925</v>
       </c>
       <c r="C180">
         <v>187.3329594202899</v>
@@ -2365,7 +2365,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.004402247300123844</v>
+        <v>0.01723374731382819</v>
       </c>
       <c r="C181">
         <v>172.1414507246377</v>
@@ -2376,7 +2376,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.00430780481831146</v>
+        <v>0.01738640980467187</v>
       </c>
       <c r="C182">
         <v>117.4943492753623</v>
@@ -2387,7 +2387,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.00460327202321564</v>
+        <v>0.01739795539132533</v>
       </c>
       <c r="C183">
         <v>64.85872608695652</v>
@@ -2398,7 +2398,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.004720842773119011</v>
+        <v>0.01751252307799774</v>
       </c>
       <c r="C184">
         <v>134.6139144927536</v>
@@ -2409,7 +2409,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.00476158964535579</v>
+        <v>0.01781965511310889</v>
       </c>
       <c r="C185">
         <v>157.9312608695652</v>
@@ -2420,7 +2420,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.004368265384436121</v>
+        <v>0.0163513595481456</v>
       </c>
       <c r="C186">
         <v>107.3268275362319</v>
@@ -2431,7 +2431,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.004262045207967209</v>
+        <v>0.01695137243036058</v>
       </c>
       <c r="C187">
         <v>125.883515942029</v>
@@ -2442,7 +2442,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.004487684406994152</v>
+        <v>0.01676041455458708</v>
       </c>
       <c r="C188">
         <v>92.7041608695652</v>
@@ -2453,7 +2453,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.004294595639914683</v>
+        <v>0.01630853071569168</v>
       </c>
       <c r="C189">
         <v>218.0283695652174</v>
@@ -2464,7 +2464,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.003957315572963237</v>
+        <v>0.01540929894054262</v>
       </c>
       <c r="C190">
         <v>152.4450376811594</v>
@@ -2475,7 +2475,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.004479490602422968</v>
+        <v>0.01684676289115275</v>
       </c>
       <c r="C191">
         <v>160.2965956521739</v>
@@ -2486,7 +2486,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.004852413214421009</v>
+        <v>0.01763792168359321</v>
       </c>
       <c r="C192">
         <v>61.01452608695652</v>
@@ -2497,7 +2497,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.002934619815235611</v>
+        <v>0.01451074734390493</v>
       </c>
       <c r="C193">
         <v>227.0465463768116</v>
@@ -2508,7 +2508,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.003455238364322169</v>
+        <v>0.01057192125158772</v>
       </c>
       <c r="C194">
         <v>225.3623188405797</v>
@@ -2519,7 +2519,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.004581432196143645</v>
+        <v>0.01769535602833265</v>
       </c>
       <c r="C195">
         <v>212.9107478260869</v>
@@ -2530,7 +2530,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.002742254916860663</v>
+        <v>0.01850095705372013</v>
       </c>
       <c r="C196">
         <v>56.04260434782609</v>
@@ -2541,7 +2541,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.002941383662409122</v>
+        <v>0.01834568727016394</v>
       </c>
       <c r="C197">
         <v>45.10759420289855</v>
@@ -2552,7 +2552,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.002712091515158598</v>
+        <v>0.01810247783741449</v>
       </c>
       <c r="C198">
         <v>89.72987391304349</v>
@@ -2563,7 +2563,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.002247199478223508</v>
+        <v>0.01737508139261473</v>
       </c>
       <c r="C199">
         <v>120.9402985507246</v>
@@ -2574,7 +2574,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.002687808860698142</v>
+        <v>0.01806766881492176</v>
       </c>
       <c r="C200">
         <v>102.7718913043478</v>
@@ -2585,7 +2585,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.002737430518013373</v>
+        <v>0.01757325823823442</v>
       </c>
       <c r="C201">
         <v>156.1629898550725</v>
@@ -2596,7 +2596,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.002544702038923981</v>
+        <v>0.01732330205743553</v>
       </c>
       <c r="C202">
         <v>123.8035217391304</v>
@@ -2607,7 +2607,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.002486242255633934</v>
+        <v>0.01905896373955715</v>
       </c>
       <c r="C203">
         <v>50.38618405797101</v>
@@ -2618,7 +2618,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.002861959158514943</v>
+        <v>0.01705554158781452</v>
       </c>
       <c r="C204">
         <v>51.04199420289856</v>
